--- a/public/uploads/excel/reporte-subcontractor.xlsx
+++ b/public/uploads/excel/reporte-subcontractor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t> </t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>02/03/2025</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -876,7 +879,7 @@
   <dimension ref="A1:H2306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H145" sqref="H145:H145"/>
+      <selection activeCell="H147" sqref="H147:H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4389,9 +4392,18 @@
       <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="F147" s="15"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
+      <c r="E147" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F147" s="18">
+        <v>1474.08</v>
+      </c>
+      <c r="G147" s="19">
+        <v>19513.01</v>
+      </c>
+      <c r="H147" s="19">
+        <v>64356.63</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="F148" s="15"/>

--- a/public/uploads/excel/reporte-subcontractor.xlsx
+++ b/public/uploads/excel/reporte-subcontractor.xlsx
@@ -15213,15 +15213,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
   <drawing r:id="rId2"/>
-  <tableParts count="0"/>
 </worksheet>
 </file>